--- a/artfynd/A 42385-2023.xlsx
+++ b/artfynd/A 42385-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112067161</v>
+        <v>112068040</v>
       </c>
       <c r="B2" t="n">
-        <v>88033</v>
+        <v>90682</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1599</v>
+        <v>2059</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>469255.5492199836</v>
+        <v>469465.2935779066</v>
       </c>
       <c r="R2" t="n">
-        <v>7039724.09229529</v>
+        <v>7039570.578985531</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -777,7 +775,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -796,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112067971</v>
+        <v>112068431</v>
       </c>
       <c r="B3" t="n">
-        <v>90651</v>
+        <v>90682</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,35 +809,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1968</v>
+        <v>2059</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>469442.3913879562</v>
+        <v>469560.301714954</v>
       </c>
       <c r="R3" t="n">
-        <v>7039562.307054698</v>
+        <v>7039584.865674394</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -891,6 +890,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112068040</v>
+        <v>112067971</v>
       </c>
       <c r="B4" t="n">
-        <v>90682</v>
+        <v>90651</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,21 +925,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2059</v>
+        <v>1968</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -950,10 +950,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>469465.2935779066</v>
+        <v>469442.3913879562</v>
       </c>
       <c r="R4" t="n">
-        <v>7039570.578985531</v>
+        <v>7039562.307054698</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112068136</v>
+        <v>112068010</v>
       </c>
       <c r="B5" t="n">
         <v>88032</v>
@@ -1063,10 +1063,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>469497.2731844194</v>
+        <v>469452.1049495166</v>
       </c>
       <c r="R5" t="n">
-        <v>7039592.171412793</v>
+        <v>7039595.285133248</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112068431</v>
+        <v>112067161</v>
       </c>
       <c r="B6" t="n">
-        <v>90682</v>
+        <v>88033</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1147,25 +1147,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2059</v>
+        <v>1599</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>469560.301714954</v>
+        <v>469255.5492199836</v>
       </c>
       <c r="R6" t="n">
-        <v>7039584.865674394</v>
+        <v>7039724.09229529</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112074141</v>
+        <v>112068136</v>
       </c>
       <c r="B7" t="n">
-        <v>90300</v>
+        <v>88032</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1263,41 +1263,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4745</v>
+        <v>6276</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Tjärnmyren, Nybodarna, Offerdal, Jmt</t>
+          <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>469230.4577508173</v>
+        <v>469497.2731844194</v>
       </c>
       <c r="R7" t="n">
-        <v>7039720.759171179</v>
+        <v>7039592.171412793</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1348,7 +1346,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1367,7 +1364,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112068010</v>
+        <v>112067953</v>
       </c>
       <c r="B8" t="n">
         <v>88032</v>
@@ -1408,10 +1405,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>469452.1049495166</v>
+        <v>469442.3913879562</v>
       </c>
       <c r="R8" t="n">
-        <v>7039595.285133248</v>
+        <v>7039562.307054698</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1480,10 +1477,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112067953</v>
+        <v>112074141</v>
       </c>
       <c r="B9" t="n">
-        <v>88032</v>
+        <v>90300</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1492,39 +1489,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6276</v>
+        <v>4745</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Tjärnmyren (Tjärnmyren), Jmt</t>
+          <t>Tjärnmyren, Nybodarna, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>469442.3913879562</v>
+        <v>469230.4577508173</v>
       </c>
       <c r="R9" t="n">
-        <v>7039562.307054698</v>
+        <v>7039720.759171179</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1575,6 +1574,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 42385-2023.xlsx
+++ b/artfynd/A 42385-2023.xlsx
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112067971</v>
+        <v>112074141</v>
       </c>
       <c r="B4" t="n">
-        <v>90651</v>
+        <v>90300</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,35 +925,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1968</v>
+        <v>4745</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Tjärnmyren (Tjärnmyren), Jmt</t>
+          <t>Tjärnmyren, Nybodarna, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>469442.3913879562</v>
+        <v>469230.4577508173</v>
       </c>
       <c r="R4" t="n">
-        <v>7039562.307054698</v>
+        <v>7039720.759171179</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1004,6 +1006,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1022,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112068010</v>
+        <v>112067971</v>
       </c>
       <c r="B5" t="n">
-        <v>88032</v>
+        <v>90651</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1034,25 +1037,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6276</v>
+        <v>1968</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1063,10 +1066,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>469452.1049495166</v>
+        <v>469442.3913879562</v>
       </c>
       <c r="R5" t="n">
-        <v>7039595.285133248</v>
+        <v>7039562.307054698</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1135,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112067161</v>
+        <v>112067953</v>
       </c>
       <c r="B6" t="n">
-        <v>88033</v>
+        <v>88032</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1151,37 +1154,35 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1599</v>
+        <v>6276</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>469255.5492199836</v>
+        <v>469442.3913879562</v>
       </c>
       <c r="R6" t="n">
-        <v>7039724.09229529</v>
+        <v>7039562.307054698</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1232,7 +1233,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112067953</v>
+        <v>112067161</v>
       </c>
       <c r="B8" t="n">
-        <v>88032</v>
+        <v>88033</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1380,35 +1380,37 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6276</v>
+        <v>1599</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>469442.3913879562</v>
+        <v>469255.5492199836</v>
       </c>
       <c r="R8" t="n">
-        <v>7039562.307054698</v>
+        <v>7039724.09229529</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1459,6 +1461,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1477,10 +1480,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112074141</v>
+        <v>112068010</v>
       </c>
       <c r="B9" t="n">
-        <v>90300</v>
+        <v>88032</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1489,41 +1492,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4745</v>
+        <v>6276</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Tjärnmyren, Nybodarna, Offerdal, Jmt</t>
+          <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>469230.4577508173</v>
+        <v>469452.1049495166</v>
       </c>
       <c r="R9" t="n">
-        <v>7039720.759171179</v>
+        <v>7039595.285133248</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1574,7 +1575,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 42385-2023.xlsx
+++ b/artfynd/A 42385-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112068040</v>
+        <v>112067971</v>
       </c>
       <c r="B2" t="n">
-        <v>90682</v>
+        <v>90651</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2059</v>
+        <v>1968</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>469465.2935779066</v>
+        <v>469442</v>
       </c>
       <c r="R2" t="n">
-        <v>7039570.578985531</v>
+        <v>7039562</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -754,19 +754,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +783,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112068431</v>
+        <v>112067953</v>
       </c>
       <c r="B3" t="n">
-        <v>90682</v>
+        <v>88032</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,41 +795,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>469560.301714954</v>
+        <v>469442</v>
       </c>
       <c r="R3" t="n">
-        <v>7039584.865674394</v>
+        <v>7039562</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -869,28 +857,17 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -909,10 +886,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112074141</v>
+        <v>112068040</v>
       </c>
       <c r="B4" t="n">
-        <v>90300</v>
+        <v>90682</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,37 +902,35 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4745</v>
+        <v>2059</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Tjärnmyren, Nybodarna, Offerdal, Jmt</t>
+          <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>469230.4577508173</v>
+        <v>469465</v>
       </c>
       <c r="R4" t="n">
-        <v>7039720.759171179</v>
+        <v>7039571</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -985,28 +960,17 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1025,10 +989,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112067971</v>
+        <v>112068136</v>
       </c>
       <c r="B5" t="n">
-        <v>90651</v>
+        <v>88032</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,25 +1001,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1968</v>
+        <v>6276</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1066,10 +1030,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>469442.3913879562</v>
+        <v>469497</v>
       </c>
       <c r="R5" t="n">
-        <v>7039562.307054698</v>
+        <v>7039592</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1099,19 +1063,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,7 +1092,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112067953</v>
+        <v>112068010</v>
       </c>
       <c r="B6" t="n">
         <v>88032</v>
@@ -1179,10 +1133,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>469442.3913879562</v>
+        <v>469452</v>
       </c>
       <c r="R6" t="n">
-        <v>7039562.307054698</v>
+        <v>7039595</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1212,19 +1166,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1251,10 +1195,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112068136</v>
+        <v>112074141</v>
       </c>
       <c r="B7" t="n">
-        <v>88032</v>
+        <v>90300</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1263,39 +1207,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6276</v>
+        <v>4745</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Tjärnmyren (Tjärnmyren), Jmt</t>
+          <t>Tjärnmyren, Nybodarna, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>469497.2731844194</v>
+        <v>469230</v>
       </c>
       <c r="R7" t="n">
-        <v>7039592.171412793</v>
+        <v>7039721</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1325,27 +1271,18 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1407,10 +1344,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>469255.5492199836</v>
+        <v>469256</v>
       </c>
       <c r="R8" t="n">
-        <v>7039724.09229529</v>
+        <v>7039724</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1440,19 +1377,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1480,10 +1407,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112068010</v>
+        <v>112068431</v>
       </c>
       <c r="B9" t="n">
-        <v>88032</v>
+        <v>90682</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1492,39 +1419,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>469452.1049495166</v>
+        <v>469560</v>
       </c>
       <c r="R9" t="n">
-        <v>7039595.285133248</v>
+        <v>7039585</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1554,27 +1483,18 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 42385-2023.xlsx
+++ b/artfynd/A 42385-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY9"/>
+  <dimension ref="A1:AY12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112067971</v>
+        <v>112067161</v>
       </c>
       <c r="B2" t="n">
-        <v>90651</v>
+        <v>88167</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,39 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1968</v>
+        <v>1599</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>469442</v>
+        <v>469256</v>
       </c>
       <c r="R2" t="n">
-        <v>7039562</v>
+        <v>7039724</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -765,6 +767,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -783,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112067953</v>
+        <v>112074141</v>
       </c>
       <c r="B3" t="n">
-        <v>88032</v>
+        <v>90434</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -795,39 +798,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6276</v>
+        <v>4745</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Tjärnmyren (Tjärnmyren), Jmt</t>
+          <t>Tjärnmyren, Nybodarna, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>469442</v>
+        <v>469230</v>
       </c>
       <c r="R3" t="n">
-        <v>7039562</v>
+        <v>7039721</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -868,6 +873,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -886,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112068040</v>
+        <v>112370021</v>
       </c>
       <c r="B4" t="n">
-        <v>90682</v>
+        <v>56430</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -902,35 +908,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2059</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Tjärnmyren (Tjärnmyren), Jmt</t>
+          <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>469465</v>
+        <v>469287</v>
       </c>
       <c r="R4" t="n">
-        <v>7039571</v>
+        <v>7039645</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -957,12 +966,17 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -977,22 +991,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112068136</v>
+        <v>112370020</v>
       </c>
       <c r="B5" t="n">
-        <v>88032</v>
+        <v>56430</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1001,39 +1015,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6276</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Tjärnmyren (Tjärnmyren), Jmt</t>
+          <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>469497</v>
+        <v>469262</v>
       </c>
       <c r="R5" t="n">
-        <v>7039592</v>
+        <v>7039652</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1060,12 +1077,17 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1080,22 +1102,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112068010</v>
+        <v>112067953</v>
       </c>
       <c r="B6" t="n">
-        <v>88032</v>
+        <v>88166</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1133,10 +1155,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>469452</v>
+        <v>469442</v>
       </c>
       <c r="R6" t="n">
-        <v>7039595</v>
+        <v>7039562</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1195,10 +1217,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112074141</v>
+        <v>112068040</v>
       </c>
       <c r="B7" t="n">
-        <v>90300</v>
+        <v>90816</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1211,37 +1233,35 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4745</v>
+        <v>2059</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Tjärnmyren, Nybodarna, Offerdal, Jmt</t>
+          <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>469230</v>
+        <v>469465</v>
       </c>
       <c r="R7" t="n">
-        <v>7039721</v>
+        <v>7039571</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1282,7 +1302,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1301,10 +1320,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112067161</v>
+        <v>112068136</v>
       </c>
       <c r="B8" t="n">
-        <v>88033</v>
+        <v>88166</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1317,37 +1336,35 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1599</v>
+        <v>6276</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>469256</v>
+        <v>469497</v>
       </c>
       <c r="R8" t="n">
-        <v>7039724</v>
+        <v>7039592</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1388,7 +1405,6 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1407,10 +1423,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112068431</v>
+        <v>112067971</v>
       </c>
       <c r="B9" t="n">
-        <v>90682</v>
+        <v>90785</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1423,37 +1439,35 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2059</v>
+        <v>1968</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>469560</v>
+        <v>469442</v>
       </c>
       <c r="R9" t="n">
-        <v>7039585</v>
+        <v>7039562</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1494,7 +1508,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1510,6 +1523,326 @@
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112068010</v>
+      </c>
+      <c r="B10" t="n">
+        <v>88166</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6276</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Goliatmusseron</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Tricholoma matsutake</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Tjärnmyren (Tjärnmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>469452</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7039595</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112068431</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90816</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Tjärnmyren (Tjärnmyren), Jmt</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>469560</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7039585</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-13</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112370012</v>
+      </c>
+      <c r="B12" t="n">
+        <v>56430</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>nybodarna Österulvsås, Jmt</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>469631</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7039391</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 42385-2023.xlsx
+++ b/artfynd/A 42385-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112067161</v>
       </c>
       <c r="B2" t="n">
-        <v>88167</v>
+        <v>88181</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>112074141</v>
       </c>
       <c r="B3" t="n">
-        <v>90434</v>
+        <v>90448</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112370021</v>
+        <v>112370020</v>
       </c>
       <c r="B4" t="n">
         <v>56430</v>
@@ -936,10 +936,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>469287</v>
+        <v>469262</v>
       </c>
       <c r="R4" t="n">
-        <v>7039645</v>
+        <v>7039652</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -976,7 +976,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1003,7 +1003,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112370020</v>
+        <v>112370021</v>
       </c>
       <c r="B5" t="n">
         <v>56430</v>
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>469262</v>
+        <v>469287</v>
       </c>
       <c r="R5" t="n">
-        <v>7039652</v>
+        <v>7039645</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1114,10 +1114,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112067953</v>
+        <v>112067971</v>
       </c>
       <c r="B6" t="n">
-        <v>88166</v>
+        <v>90799</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1126,25 +1126,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6276</v>
+        <v>1968</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1217,10 +1217,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112068040</v>
+        <v>112068136</v>
       </c>
       <c r="B7" t="n">
-        <v>90816</v>
+        <v>88180</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1229,25 +1229,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1258,10 +1258,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>469465</v>
+        <v>469497</v>
       </c>
       <c r="R7" t="n">
-        <v>7039571</v>
+        <v>7039592</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1320,10 +1320,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112068136</v>
+        <v>112068010</v>
       </c>
       <c r="B8" t="n">
-        <v>88166</v>
+        <v>88180</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1361,10 +1361,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>469497</v>
+        <v>469452</v>
       </c>
       <c r="R8" t="n">
-        <v>7039592</v>
+        <v>7039595</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112067971</v>
+        <v>112067953</v>
       </c>
       <c r="B9" t="n">
-        <v>90785</v>
+        <v>88180</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1435,25 +1435,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1968</v>
+        <v>6276</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1526,10 +1526,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112068010</v>
+        <v>112068040</v>
       </c>
       <c r="B10" t="n">
-        <v>88166</v>
+        <v>90830</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1538,25 +1538,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1567,10 +1567,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>469452</v>
+        <v>469465</v>
       </c>
       <c r="R10" t="n">
-        <v>7039595</v>
+        <v>7039571</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>112068431</v>
       </c>
       <c r="B11" t="n">
-        <v>90816</v>
+        <v>90830</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>

--- a/artfynd/A 42385-2023.xlsx
+++ b/artfynd/A 42385-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112067161</v>
+        <v>112068040</v>
       </c>
       <c r="B2" t="n">
-        <v>88181</v>
+        <v>90830</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1599</v>
+        <v>2059</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>469256</v>
+        <v>469465</v>
       </c>
       <c r="R2" t="n">
-        <v>7039724</v>
+        <v>7039571</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -767,7 +765,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -786,10 +783,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112074141</v>
+        <v>112068010</v>
       </c>
       <c r="B3" t="n">
-        <v>90448</v>
+        <v>88180</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,41 +795,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4745</v>
+        <v>6276</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Tjärnmyren, Nybodarna, Offerdal, Jmt</t>
+          <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>469230</v>
+        <v>469452</v>
       </c>
       <c r="R3" t="n">
-        <v>7039721</v>
+        <v>7039595</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -873,7 +868,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -892,10 +886,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112370020</v>
+        <v>112067971</v>
       </c>
       <c r="B4" t="n">
-        <v>56430</v>
+        <v>90799</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -908,38 +902,35 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>1968</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>nybodarna Österulvsås, Jmt</t>
+          <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>469262</v>
+        <v>469442</v>
       </c>
       <c r="R4" t="n">
-        <v>7039652</v>
+        <v>7039562</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -966,17 +957,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -991,22 +977,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112370021</v>
+        <v>112068136</v>
       </c>
       <c r="B5" t="n">
-        <v>56430</v>
+        <v>88180</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1015,42 +1001,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6276</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>nybodarna Österulvsås, Jmt</t>
+          <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>469287</v>
+        <v>469497</v>
       </c>
       <c r="R5" t="n">
-        <v>7039645</v>
+        <v>7039592</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1077,17 +1060,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ringhack</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1102,22 +1080,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Rashid Kadhim</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112067971</v>
+        <v>112074141</v>
       </c>
       <c r="B6" t="n">
-        <v>90799</v>
+        <v>90448</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1130,35 +1108,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1968</v>
+        <v>4745</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Tjärnmyren (Tjärnmyren), Jmt</t>
+          <t>Tjärnmyren, Nybodarna, Offerdal, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>469442</v>
+        <v>469230</v>
       </c>
       <c r="R6" t="n">
-        <v>7039562</v>
+        <v>7039721</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1199,6 +1179,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1217,7 +1198,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112068136</v>
+        <v>112067953</v>
       </c>
       <c r="B7" t="n">
         <v>88180</v>
@@ -1258,10 +1239,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>469497</v>
+        <v>469442</v>
       </c>
       <c r="R7" t="n">
-        <v>7039592</v>
+        <v>7039562</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1320,10 +1301,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112068010</v>
+        <v>112067161</v>
       </c>
       <c r="B8" t="n">
-        <v>88180</v>
+        <v>88181</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1336,35 +1317,37 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6276</v>
+        <v>1599</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>469452</v>
+        <v>469256</v>
       </c>
       <c r="R8" t="n">
-        <v>7039595</v>
+        <v>7039724</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1405,6 +1388,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1423,10 +1407,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112067953</v>
+        <v>112068431</v>
       </c>
       <c r="B9" t="n">
-        <v>88180</v>
+        <v>90830</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1435,39 +1419,41 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Tjärnmyren (Tjärnmyren), Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>469442</v>
+        <v>469560</v>
       </c>
       <c r="R9" t="n">
-        <v>7039562</v>
+        <v>7039585</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1508,6 +1494,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1526,10 +1513,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112068040</v>
+        <v>112370012</v>
       </c>
       <c r="B10" t="n">
-        <v>90830</v>
+        <v>56430</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1542,35 +1529,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2059</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Tjärnmyren (Tjärnmyren), Jmt</t>
+          <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>469465</v>
+        <v>469631</v>
       </c>
       <c r="R10" t="n">
-        <v>7039571</v>
+        <v>7039391</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1597,12 +1587,17 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-28</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1617,22 +1612,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112068431</v>
+        <v>112370020</v>
       </c>
       <c r="B11" t="n">
-        <v>90830</v>
+        <v>56430</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1645,37 +1640,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2059</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Tjärnmyren (Tjärnmyren), Jmt</t>
+          <t>nybodarna Österulvsås, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>469560</v>
+        <v>469262</v>
       </c>
       <c r="R11" t="n">
-        <v>7039585</v>
+        <v>7039652</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1702,12 +1698,17 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>2023-09-26</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1716,26 +1717,25 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Rashid Kadhim</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112370012</v>
+        <v>112370021</v>
       </c>
       <c r="B12" t="n">
         <v>56430</v>
@@ -1779,10 +1779,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>469631</v>
+        <v>469287</v>
       </c>
       <c r="R12" t="n">
-        <v>7039391</v>
+        <v>7039645</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1809,12 +1809,12 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
